--- a/mcas.xlsx
+++ b/mcas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memog\Dropbox\Estudios\Cursos no formales\Introducción a los modelos de regresión y principios de\Primera clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470134C-7BA2-D64F-819E-6EEDA56607DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4B04F-5E6D-4189-AC8C-DC5A0E031794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{5DDB2F22-3B1E-3643-BC88-1BB20A3C422F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DDB2F22-3B1E-3643-BC88-1BB20A3C422F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1370,32 +1370,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A61554E-F2F6-BD49-828F-B3A46A197151}">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="11.796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1501,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1554,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1607,7 +1594,7 @@
         <v>0.3225806</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -1660,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1713,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1766,7 +1753,7 @@
         <v>2.7027030000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -1819,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1872,7 +1859,7 @@
         <v>0.37523450000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1925,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>19</v>
       </c>
@@ -1978,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -2031,7 +2018,7 @@
         <v>1.0033449999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -2084,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -2137,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>26</v>
       </c>
@@ -2190,7 +2177,7 @@
         <v>2.1739130000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -2243,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2296,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -2349,7 +2336,7 @@
         <v>10.798019999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -2402,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40</v>
       </c>
@@ -2455,7 +2442,7 @@
         <v>0.23923440000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44</v>
       </c>
@@ -2508,7 +2495,7 @@
         <v>1.754386</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -2561,7 +2548,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>48</v>
       </c>
@@ -2614,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -2667,7 +2654,7 @@
         <v>0.43668119999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -2720,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>55</v>
       </c>
@@ -2773,7 +2760,7 @@
         <v>5.2631579999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>56</v>
       </c>
@@ -2826,7 +2813,7 @@
         <v>0.2217295</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>57</v>
       </c>
@@ -2879,7 +2866,7 @@
         <v>9.6618359999999992</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>61</v>
       </c>
@@ -2932,7 +2919,7 @@
         <v>2.3985240000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>63</v>
       </c>
@@ -2985,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>64</v>
       </c>
@@ -3038,7 +3025,7 @@
         <v>0.7042254</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>65</v>
       </c>
@@ -3091,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>67</v>
       </c>
@@ -3144,7 +3131,7 @@
         <v>0.44642860000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>71</v>
       </c>
@@ -3197,7 +3184,7 @@
         <v>0.3401361</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>72</v>
       </c>
@@ -3250,7 +3237,7 @@
         <v>0.63291140000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>73</v>
       </c>
@@ -3303,7 +3290,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>77</v>
       </c>
@@ -3356,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>79</v>
       </c>
@@ -3409,7 +3396,7 @@
         <v>1.186944</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>83</v>
       </c>
@@ -3462,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>87</v>
       </c>
@@ -3515,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>86</v>
       </c>
@@ -3568,7 +3555,7 @@
         <v>1.351351</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>88</v>
       </c>
@@ -3621,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>92</v>
       </c>
@@ -3674,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>93</v>
       </c>
@@ -3727,7 +3714,7 @@
         <v>1.1299429999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>94</v>
       </c>
@@ -3780,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>95</v>
       </c>
@@ -3833,7 +3820,7 @@
         <v>3.6803360000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>96</v>
       </c>
@@ -3886,7 +3873,7 @@
         <v>0.24630540000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>97</v>
       </c>
@@ -3939,7 +3926,7 @@
         <v>9.9190280000000008</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>99</v>
       </c>
@@ -3992,7 +3979,7 @@
         <v>0.42194090000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>100</v>
       </c>
@@ -4045,7 +4032,7 @@
         <v>8.5899520000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>101</v>
       </c>
@@ -4098,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>103</v>
       </c>
@@ -4151,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>105</v>
       </c>
@@ -4204,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>107</v>
       </c>
@@ -4257,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>110</v>
       </c>
@@ -4310,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>111</v>
       </c>
@@ -4363,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>112</v>
       </c>
@@ -4416,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>117</v>
       </c>
@@ -4469,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>122</v>
       </c>
@@ -4522,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>125</v>
       </c>
@@ -4575,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>126</v>
       </c>
@@ -4628,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>127</v>
       </c>
@@ -4681,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>131</v>
       </c>
@@ -4734,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>133</v>
       </c>
@@ -4787,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>137</v>
       </c>
@@ -4840,7 +4827,7 @@
         <v>24.493929999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>138</v>
       </c>
@@ -4893,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>141</v>
       </c>
@@ -4946,7 +4933,7 @@
         <v>0.88495579999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>142</v>
       </c>
@@ -4999,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>144</v>
       </c>
@@ -5052,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>149</v>
       </c>
@@ -5105,7 +5092,7 @@
         <v>14.834580000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>150</v>
       </c>
@@ -5158,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>151</v>
       </c>
@@ -5211,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>152</v>
       </c>
@@ -5264,7 +5251,7 @@
         <v>1.538462</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>155</v>
       </c>
@@ -5317,7 +5304,7 @@
         <v>0.6493506</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>158</v>
       </c>
@@ -5370,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>159</v>
       </c>
@@ -5423,7 +5410,7 @@
         <v>0.88888889999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>160</v>
       </c>
@@ -5476,7 +5463,7 @@
         <v>16.19772</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>161</v>
       </c>
@@ -5529,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>162</v>
       </c>
@@ -5582,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>163</v>
       </c>
@@ -5635,7 +5622,7 @@
         <v>6.3119930000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>164</v>
       </c>
@@ -5688,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>166</v>
       </c>
@@ -5741,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>167</v>
       </c>
@@ -5794,7 +5781,7 @@
         <v>0.59171600000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>168</v>
       </c>
@@ -5847,7 +5834,7 @@
         <v>0.42372880000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>170</v>
       </c>
@@ -5900,7 +5887,7 @@
         <v>3.4031410000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>171</v>
       </c>
@@ -5953,7 +5940,7 @@
         <v>0.2816902</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>172</v>
       </c>
@@ -6006,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>175</v>
       </c>
@@ -6059,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>176</v>
       </c>
@@ -6112,7 +6099,7 @@
         <v>2.2883300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>177</v>
       </c>
@@ -6165,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>178</v>
       </c>
@@ -6218,7 +6205,7 @@
         <v>0.32786880000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>181</v>
       </c>
@@ -6271,7 +6258,7 @@
         <v>1.5789470000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>182</v>
       </c>
@@ -6324,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>185</v>
       </c>
@@ -6377,7 +6364,7 @@
         <v>1.253919</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>191</v>
       </c>
@@ -6430,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>198</v>
       </c>
@@ -6483,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>199</v>
       </c>
@@ -6536,7 +6523,7 @@
         <v>0.29940119999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>201</v>
       </c>
@@ -6589,7 +6576,7 @@
         <v>3.0705390000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>204</v>
       </c>
@@ -6642,7 +6629,7 @@
         <v>0.42918460000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>207</v>
       </c>
@@ -6695,7 +6682,7 @@
         <v>1.0928960000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>209</v>
       </c>
@@ -6748,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>211</v>
       </c>
@@ -6801,7 +6788,7 @@
         <v>0.53619300000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>212</v>
       </c>
@@ -6854,7 +6841,7 @@
         <v>0.25188919999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>215</v>
       </c>
@@ -6907,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>217</v>
       </c>
@@ -6960,7 +6947,7 @@
         <v>0.93023259999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>210</v>
       </c>
@@ -7013,7 +7000,7 @@
         <v>1.7241379999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>213</v>
       </c>
@@ -7066,7 +7053,7 @@
         <v>0.456621</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>214</v>
       </c>
@@ -7119,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>218</v>
       </c>
@@ -7172,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>219</v>
       </c>
@@ -7225,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>220</v>
       </c>
@@ -7278,7 +7265,7 @@
         <v>0.66006600000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>244</v>
       </c>
@@ -7331,7 +7318,7 @@
         <v>4.0229879999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>246</v>
       </c>
@@ -7384,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>248</v>
       </c>
@@ -7437,7 +7424,7 @@
         <v>1.747573</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>251</v>
       </c>
@@ -7490,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>252</v>
       </c>
@@ -7543,7 +7530,7 @@
         <v>1.1627909999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>258</v>
       </c>
@@ -7596,7 +7583,7 @@
         <v>12.244899999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>261</v>
       </c>
@@ -7649,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>262</v>
       </c>
@@ -7702,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>264</v>
       </c>
@@ -7755,7 +7742,7 @@
         <v>1.532567</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>265</v>
       </c>
@@ -7808,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>270</v>
       </c>
@@ -7861,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>271</v>
       </c>
@@ -7914,7 +7901,7 @@
         <v>0.56497169999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>274</v>
       </c>
@@ -7967,7 +7954,7 @@
         <v>5.7416270000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>278</v>
       </c>
@@ -8020,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>276</v>
       </c>
@@ -8073,7 +8060,7 @@
         <v>0.72463770000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>277</v>
       </c>
@@ -8126,7 +8113,7 @@
         <v>1.3824879999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>281</v>
       </c>
@@ -8179,7 +8166,7 @@
         <v>6.8730330000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>284</v>
       </c>
@@ -8232,7 +8219,7 @@
         <v>0.83682009999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>285</v>
       </c>
@@ -8285,7 +8272,7 @@
         <v>0.28011209999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>288</v>
       </c>
@@ -8338,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>290</v>
       </c>
@@ -8391,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>291</v>
       </c>
@@ -8444,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>292</v>
       </c>
@@ -8497,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>293</v>
       </c>
@@ -8550,7 +8537,7 @@
         <v>1.7160690000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>301</v>
       </c>
@@ -8603,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>304</v>
       </c>
@@ -8656,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>305</v>
       </c>
@@ -8709,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>307</v>
       </c>
@@ -8762,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>309</v>
       </c>
@@ -8815,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>310</v>
       </c>
@@ -8868,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>314</v>
       </c>
@@ -8921,7 +8908,7 @@
         <v>2.673797</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>316</v>
       </c>
@@ -8974,7 +8961,7 @@
         <v>1.257862</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>317</v>
       </c>
@@ -9027,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>322</v>
       </c>
@@ -9080,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>332</v>
       </c>
@@ -9133,7 +9120,7 @@
         <v>2.8169010000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>321</v>
       </c>
@@ -9186,7 +9173,7 @@
         <v>1.0909089999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>325</v>
       </c>
@@ -9239,7 +9226,7 @@
         <v>1.7013229999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>326</v>
       </c>
@@ -9292,7 +9279,7 @@
         <v>0.30487809999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>330</v>
       </c>
@@ -9345,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>331</v>
       </c>
@@ -9398,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>335</v>
       </c>
@@ -9451,7 +9438,7 @@
         <v>0.49504949999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>336</v>
       </c>
@@ -9504,7 +9491,7 @@
         <v>0.1980198</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>342</v>
       </c>
@@ -9557,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>343</v>
       </c>
@@ -9610,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>348</v>
       </c>
@@ -9664,7 +9651,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q156" xr:uid="{C98E303F-2F97-B44F-BE3B-58100722F23E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mcas.xlsx
+++ b/mcas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memog\Dropbox\Estudios\Cursos no formales\Introducción a los modelos de regresión y principios de\Primera clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4B04F-5E6D-4189-AC8C-DC5A0E031794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2FED7-2B87-4193-AC3A-21F092E0257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DDB2F22-3B1E-3643-BC88-1BB20A3C422F}"/>
   </bookViews>
